--- a/res con grafici.xlsx
+++ b/res con grafici.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CTT</t>
   </si>
@@ -30,6 +30,21 @@
   <si>
     <t>Potenza</t>
   </si>
+  <si>
+    <t>KNEE POINT</t>
+  </si>
+  <si>
+    <t>USABLE POINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNEE POINT: lo calcolo utilizzando il concetto di potenza, nel punto di massimo della potenza ottengo il Knee Point. È il punto dove </t>
+  </si>
+  <si>
+    <t>USABLE POINT: punto in corrispondenza del massimo throughput raggiungibile</t>
+  </si>
+  <si>
+    <t>Nel nostro caso il knee point dovrebbe trovarsi tra i 250 e 300 dato che è il punto a massima potenza(300 dal grafico), ma, allo stesso tempo, è anche il punto dove prima di esso il tempo elapsed cresce in maniera poco accentuata e dopo di esso in maniera fortemente accentuata. Questo, dal grafico dell'elapsed dovrebbe trovarsi intorno ai 250. Inoltre, questo punto viene individuato anche guardando il throughput: esso deve essere "fortemente" crescente prima di esso ma dopo di esso meno crescente. Quindi anche da queste info capisce che tale punto potrebbe trovarsi tra i 250 e 300.</t>
+  </si>
 </sst>
 </file>
 
@@ -40,7 +55,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[h].mm.ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -79,13 +94,36 @@
       <color theme="1"/>
       <name val="&quot;Liberation Sans&quot;"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -116,6 +154,18 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,6 +234,23 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="14"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$A$13</c:f>
@@ -197,11 +264,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="759021581"/>
-        <c:axId val="1557885643"/>
+        <c:axId val="1609535681"/>
+        <c:axId val="1250404405"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="759021581"/>
+        <c:axId val="1609535681"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,10 +320,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1557885643"/>
+        <c:crossAx val="1250404405"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1557885643"/>
+        <c:axId val="1250404405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759021581"/>
+        <c:crossAx val="1609535681"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -342,11 +409,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0">
+            <a:defRPr b="0" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="sans-serif"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -416,6 +483,40 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="14"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="14"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln cmpd="sng">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$A$13</c:f>
@@ -429,11 +530,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1534067110"/>
-        <c:axId val="1558150957"/>
+        <c:axId val="131201124"/>
+        <c:axId val="677541732"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1534067110"/>
+        <c:axId val="131201124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,10 +586,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1558150957"/>
+        <c:crossAx val="677541732"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1558150957"/>
+        <c:axId val="677541732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534067110"/>
+        <c:crossAx val="131201124"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -630,7 +731,7 @@
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -639,15 +740,49 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln cmpd="sng">
                 <a:solidFill>
-                  <a:srgbClr val="4472C4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="14"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="14"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$3:$A$13</c:f>
@@ -661,11 +796,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1156396170"/>
-        <c:axId val="1640664198"/>
+        <c:axId val="1754379835"/>
+        <c:axId val="425955546"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1156396170"/>
+        <c:axId val="1754379835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,10 +852,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1640664198"/>
+        <c:crossAx val="425955546"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1640664198"/>
+        <c:axId val="425955546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +930,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1156396170"/>
+        <c:crossAx val="1754379835"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -850,8 +985,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -875,8 +1010,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -1105,7 +1240,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.78"/>
+    <col customWidth="1" min="1" max="1" width="17.11"/>
     <col customWidth="1" min="2" max="2" width="18.56"/>
     <col customWidth="1" min="3" max="3" width="21.22"/>
     <col customWidth="1" min="4" max="4" width="20.67"/>
@@ -1368,12 +1503,31 @@
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
